--- a/dataset/photovoltaic/PreSchool/2022_1/1.xlsx
+++ b/dataset/photovoltaic/PreSchool/2022_1/1.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,7 +408,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>44562.375</v>
+        <v>44562</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -416,63 +416,63 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>44562.41666666666</v>
+        <v>44562.04166666666</v>
       </c>
       <c r="B6">
-        <v>5.253617357014987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>44562.45833333334</v>
+        <v>44562.08333333334</v>
       </c>
       <c r="B7">
-        <v>7.349475345140002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>44562.5</v>
+        <v>44562.125</v>
       </c>
       <c r="B8">
-        <v>9.892449704164784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>44562.54166666666</v>
+        <v>44562.16666666666</v>
       </c>
       <c r="B9">
-        <v>12.46336883626914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>44562.58333333334</v>
+        <v>44562.20833333334</v>
       </c>
       <c r="B10">
-        <v>11.90447337280709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>44562.625</v>
+        <v>44562.25</v>
       </c>
       <c r="B11">
-        <v>8.215763313615973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>44562.66666666666</v>
+        <v>44562.29166666666</v>
       </c>
       <c r="B12">
-        <v>2.766532544352673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>44562.70833333334</v>
+        <v>44562.33333333334</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>44562.75</v>
+        <v>44562.375</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -488,46 +488,118 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>44562.79166666666</v>
+        <v>44562.41666666666</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>5.253617357014987</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>44562.83333333334</v>
+        <v>44562.45833333334</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>7.349475345140002</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>44562.875</v>
+        <v>44562.5</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>9.892449704164784</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>44562.91666666666</v>
+        <v>44562.54166666666</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>12.46336883626914</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
+        <v>44562.58333333334</v>
+      </c>
+      <c r="B19">
+        <v>11.90447337280709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>44562.625</v>
+      </c>
+      <c r="B20">
+        <v>8.215763313615973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>44562.66666666666</v>
+      </c>
+      <c r="B21">
+        <v>2.766532544352673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>44562.70833333334</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>44562.75</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>44562.79166666666</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>44562.83333333334</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>44562.875</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>44562.91666666666</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>44562.95833333334</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
